--- a/data/2015.xlsx
+++ b/data/2015.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="sem01+" sheetId="1" r:id="rId1"/>
-    <sheet name="sem02" sheetId="2" r:id="rId2"/>
-    <sheet name="sem03" sheetId="3" r:id="rId3"/>
-    <sheet name="sem04" sheetId="4" r:id="rId4"/>
-    <sheet name="sem05" sheetId="5" r:id="rId5"/>
-    <sheet name="sem06" sheetId="6" r:id="rId6"/>
-    <sheet name="sem07" sheetId="7" r:id="rId7"/>
-    <sheet name="sem08" sheetId="8" r:id="rId8"/>
-    <sheet name="sem09" sheetId="9" r:id="rId9"/>
+    <sheet name="sem1+" sheetId="1" r:id="rId1"/>
+    <sheet name="sem2" sheetId="2" r:id="rId2"/>
+    <sheet name="sem3" sheetId="3" r:id="rId3"/>
+    <sheet name="sem4" sheetId="4" r:id="rId4"/>
+    <sheet name="sem5" sheetId="5" r:id="rId5"/>
+    <sheet name="sem6" sheetId="6" r:id="rId6"/>
+    <sheet name="sem7" sheetId="7" r:id="rId7"/>
+    <sheet name="sem8" sheetId="8" r:id="rId8"/>
+    <sheet name="sem9" sheetId="9" r:id="rId9"/>
     <sheet name="sem10" sheetId="10" r:id="rId10"/>
     <sheet name="sem11" sheetId="11" r:id="rId11"/>
     <sheet name="sem12" sheetId="12" r:id="rId12"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6246,7 +6246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -49049,8 +49049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" activeCellId="7" sqref="B2 B3 C3 B9 B19 B23 B24 C24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
